--- a/Reponedores SMU.xlsx
+++ b/Reponedores SMU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419E64C7-0456-4B0C-AE3B-E627E781E769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8D60C-12EF-4A1E-9B0F-F1A780DE3DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>LOCAL</t>
   </si>
@@ -221,6 +221,81 @@
   </si>
   <si>
     <t>Dia_Visita</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0982</t>
+  </si>
+  <si>
+    <t>0752</t>
+  </si>
+  <si>
+    <t>0928</t>
+  </si>
+  <si>
+    <t>Reponedor Pto. Montt</t>
+  </si>
+  <si>
+    <t>Reponedor Temuco</t>
+  </si>
+  <si>
+    <t>0642</t>
+  </si>
+  <si>
+    <t>0771</t>
+  </si>
+  <si>
+    <t>0764</t>
+  </si>
+  <si>
+    <t>0763</t>
+  </si>
+  <si>
+    <t>0915</t>
+  </si>
+  <si>
+    <t>0916</t>
+  </si>
+  <si>
+    <t>0585</t>
+  </si>
+  <si>
+    <t>TEMUCO CAUPOLICAN</t>
+  </si>
+  <si>
+    <t>PADRE LAS CASAS</t>
+  </si>
+  <si>
+    <t>TEMUCO ALEMANIA</t>
+  </si>
+  <si>
+    <t>LOS NOTROS</t>
+  </si>
+  <si>
+    <t>MIRASOL</t>
+  </si>
+  <si>
+    <t>URMENETA</t>
+  </si>
+  <si>
+    <t>JUAN SOLER</t>
+  </si>
+  <si>
+    <t>LOS VOLCANES</t>
+  </si>
+  <si>
+    <t>TEMUCO Pinto 72</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>ROTONDA</t>
+  </si>
+  <si>
+    <t>PALOMA</t>
   </si>
 </sst>
 </file>
@@ -249,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -257,75 +332,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -370,23 +391,49 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -410,15 +457,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F24" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:F24" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F39" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{51FDA86C-C23C-4F74-98CD-CBE194975567}" name="LOCAL" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5BDC9619-F1FD-47F6-BF13-8F82BE0294E1}" name="Cod_Local" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{091AC0A7-82D6-4CF1-B9D4-DDA0A3B95501}" name="id_dia" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{EDB3322B-54BF-4B28-8193-A70252B564DF}" name="Dia_Visita" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E36127C3-B5BC-4917-AAF4-7B04AE483289}" name="id_Reponedor" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D80A5908-E5F6-4737-AC6F-E6D25E50E38B}" name="reponedor" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{51FDA86C-C23C-4F74-98CD-CBE194975567}" name="LOCAL" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5BDC9619-F1FD-47F6-BF13-8F82BE0294E1}" name="Cod_Local" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{091AC0A7-82D6-4CF1-B9D4-DDA0A3B95501}" name="id_dia" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{EDB3322B-54BF-4B28-8193-A70252B564DF}" name="Dia_Visita" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E36127C3-B5BC-4917-AAF4-7B04AE483289}" name="id_Reponedor" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D80A5908-E5F6-4737-AC6F-E6D25E50E38B}" name="reponedor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50045207-83DE-BA4F-BB5D-ADE8464AE0C8}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,16 +804,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1">
@@ -777,16 +824,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1">
@@ -797,16 +844,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -817,16 +864,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1">
@@ -837,16 +884,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1">
@@ -857,16 +904,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1">
@@ -877,16 +924,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1">
@@ -897,16 +944,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1">
@@ -917,16 +964,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1">
@@ -937,16 +984,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1">
@@ -957,16 +1004,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1">
@@ -977,16 +1024,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1">
@@ -997,16 +1044,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1">
@@ -1017,16 +1064,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -1037,16 +1084,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -1057,16 +1104,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1">
@@ -1077,16 +1124,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1">
@@ -1097,16 +1144,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
@@ -1117,16 +1164,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1">
@@ -1137,16 +1184,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1">
@@ -1157,16 +1204,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1">
@@ -1177,16 +1224,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="1">
@@ -1197,16 +1244,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1">
@@ -1214,6 +1261,302 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Reponedores SMU.xlsx
+++ b/Reponedores SMU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD8D60C-12EF-4A1E-9B0F-F1A780DE3DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB880667-ABF1-4100-9743-064C9D6752A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>LOCAL</t>
   </si>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50045207-83DE-BA4F-BB5D-ADE8464AE0C8}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,8 +1530,12 @@
       <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E38" s="1">
         <v>7</v>
       </c>

--- a/Reponedores SMU.xlsx
+++ b/Reponedores SMU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB880667-ABF1-4100-9743-064C9D6752A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24007A27-27B7-4B09-BDBE-6DDDA8680771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
   <si>
     <t>LOCAL</t>
   </si>
@@ -296,6 +296,171 @@
   </si>
   <si>
     <t>PALOMA</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0474</t>
+  </si>
+  <si>
+    <t>0733</t>
+  </si>
+  <si>
+    <t>Reponedor Chillán</t>
+  </si>
+  <si>
+    <t>CHILLAN IV</t>
+  </si>
+  <si>
+    <t>CHILLAN</t>
+  </si>
+  <si>
+    <t>CHILLAN II</t>
+  </si>
+  <si>
+    <t>CHILLAN VIEJO</t>
+  </si>
+  <si>
+    <t>0761</t>
+  </si>
+  <si>
+    <t>0759</t>
+  </si>
+  <si>
+    <t>Reponedor Los Angeles</t>
+  </si>
+  <si>
+    <t>MARCONI</t>
+  </si>
+  <si>
+    <t>PORTAL</t>
+  </si>
+  <si>
+    <t>0336</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0737</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>0740</t>
+  </si>
+  <si>
+    <t>0743</t>
+  </si>
+  <si>
+    <t>0914</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>0736</t>
+  </si>
+  <si>
+    <t>0966</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>Reponedor Concepción</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>CONCEPCION I</t>
+  </si>
+  <si>
+    <t>CHIGUAYANTE II</t>
+  </si>
+  <si>
+    <t>MANQUIMAVIDA</t>
+  </si>
+  <si>
+    <t>HUALQUI</t>
+  </si>
+  <si>
+    <t>CHIGUAYANTE</t>
+  </si>
+  <si>
+    <t>LOMAS DE SAN ANDRES</t>
+  </si>
+  <si>
+    <t>GOMEZ CARREÑO</t>
+  </si>
+  <si>
+    <t>TALCAHUANO BILBAO</t>
+  </si>
+  <si>
+    <t>HUALPEN</t>
+  </si>
+  <si>
+    <t>CONCEPCION III</t>
+  </si>
+  <si>
+    <t>SAN PEDRO DE LA PAZ</t>
+  </si>
+  <si>
+    <t>LOS HUERTOS</t>
+  </si>
+  <si>
+    <t>LOMAS COLORADAS</t>
+  </si>
+  <si>
+    <t>EL VOLCAN</t>
+  </si>
+  <si>
+    <t>CORONEL III</t>
+  </si>
+  <si>
+    <t>CORONEL II</t>
+  </si>
+  <si>
+    <t>CARACOL</t>
+  </si>
+  <si>
+    <t>PENCO</t>
+  </si>
+  <si>
+    <t>CONCEPCION II</t>
+  </si>
+  <si>
+    <t>LOTA II</t>
   </si>
 </sst>
 </file>
@@ -457,8 +622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F39" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F70" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{51FDA86C-C23C-4F74-98CD-CBE194975567}" name="LOCAL" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{5BDC9619-F1FD-47F6-BF13-8F82BE0294E1}" name="Cod_Local" dataDxfId="4"/>
@@ -768,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50045207-83DE-BA4F-BB5D-ADE8464AE0C8}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="4.44140625" customWidth="1"/>
@@ -1563,6 +1728,626 @@
         <v>67</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="1">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>11</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="1">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Reponedores SMU.xlsx
+++ b/Reponedores SMU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Supermercados-Nacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24007A27-27B7-4B09-BDBE-6DDDA8680771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED520C-D6FD-4618-AAB5-1280B3E5BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
   <si>
     <t>LOCAL</t>
   </si>
@@ -461,13 +461,22 @@
   </si>
   <si>
     <t>LOTA II</t>
+  </si>
+  <si>
+    <t>Reponedor Chicureo</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>HUECHURABA FONTOVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +488,10 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,12 +514,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F70" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F70" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}" name="Tabla1" displayName="Tabla1" ref="A1:F72" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F72" xr:uid="{6F40CDC9-1B0F-4B97-BC48-5B48913641BA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{51FDA86C-C23C-4F74-98CD-CBE194975567}" name="LOCAL" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{5BDC9619-F1FD-47F6-BF13-8F82BE0294E1}" name="Cod_Local" dataDxfId="4"/>
@@ -933,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50045207-83DE-BA4F-BB5D-ADE8464AE0C8}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,10 +2344,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C70" s="2">
@@ -2347,6 +2362,50 @@
       <c r="F70" s="1" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
